--- a/Document/로비_.xlsx
+++ b/Document/로비_.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Gorilla-box\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,6 +90,50 @@
   </si>
   <si>
     <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구체화 정도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">빌드 테스트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐비닛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은폐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 게임 기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,6 +243,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,14 +705,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C17:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Document/로비_.xlsx
+++ b/Document/로비_.xlsx
@@ -666,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
